--- a/TMFramwork4_HRM/DataFiles/Module1.xlsx
+++ b/TMFramwork4_HRM/DataFiles/Module1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>TC101</t>
   </si>
